--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Imager.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Imager.xlsx
@@ -374,51 +374,7 @@
 validate4;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
-};
-validate3
-{
-validate_Text_Exists=VT187-0211
-};
-validate4
-{
-validate_Result=
-};</t>
-  </si>
-  <si>
     <t>Imager Event with HTTP URL</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(imager_test_link);
-validate2;
-wait(5);
-SelectImager(back_camera);
-SelectTestToRun(VT187_0235_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(imager_test_link);
-validate2;
-wait(5);
-SelectImager(back_camera);
-SelectTestToRun(VT187_0224_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate4;</t>
   </si>
   <si>
     <t>validate1
@@ -575,24 +531,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0208
-};
-validate4
-{
-validate_Result=
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
-};
-validate3
-{
 validate_Text_Exists=VT187-0172
 };
 validate4
@@ -626,6 +564,68 @@
 ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\RE_2.2\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
+};
+validate3
+{
+validate_Text_Exists=VT187-0208
+};
+validate4
+{
+validate_Result=data : image/png;base64
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
+};
+validate3
+{
+validate_Text_Exists=VT187-0211
+};
+validate4
+{
+validate_Result=Error Code: 12014
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(imager_test_link);
+validate2;
+wait(5);
+SelectImager(back_camera);
+SelectTestToRun(VT187_0224_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(15);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(imager_test_link);
+validate2;
+wait(5);
+SelectImager(back_camera);
+SelectTestToRun(VT187_0235_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(15);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1235,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -1247,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="2" t="s">
@@ -1323,10 +1325,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="158.25" thickBot="1">
@@ -1347,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>21</v>
@@ -1461,16 +1463,16 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="5">
         <v>3</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="5"/>
@@ -1483,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="17" t="s">
@@ -1493,10 +1495,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="192" thickBot="1">
@@ -1507,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="17" t="s">
@@ -1520,7 +1522,7 @@
         <v>42</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="192" thickBot="1">
@@ -1541,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>37</v>
@@ -1559,16 +1561,16 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="5">
         <v>3</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="192" thickBot="1">
@@ -1579,20 +1581,20 @@
         <v>1</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" s="18">
         <v>3</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="192" thickBot="1">
@@ -1613,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>35</v>
@@ -1637,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>39</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Imager.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Imager.xlsx
@@ -377,24 +377,6 @@
     <t>Imager Event with HTTP URL</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
-};
-validate3
-{
-validate_Text_Exists=VT187-0224
-};
-validate4
-{
-validate_Text_Exists=Navigated successfully
-};</t>
-  </si>
-  <si>
     <t>Enable First available Imager device</t>
   </si>
   <si>
@@ -435,24 +417,6 @@
     <t>Imager Event with destination to ftp of JSON Object type</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
-};
-validate3
-{
-validate_Text_Exists=VT187-0235
-};
-validate4
-{
-validate_Text_Exists=FileSent
-};</t>
-  </si>
-  <si>
     <t>wait(3);
 validate1;
 link_Click(imager_test_link);
@@ -576,24 +540,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0208
-};
-validate4
-{
-validate_Result=data : image/png;base64
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
-};
-validate3
-{
 validate_Text_Exists=VT187-0211
 };
 validate4
@@ -626,6 +572,60 @@
 ClickRunTest(runtest_top_xpath);
 wait(15);
 validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
+};
+validate3
+{
+validate_Text_Exists=VT187-0208
+};
+validate4
+{
+validate_Result=OK: File Moved
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
+};
+validate3
+{
+validate_Text_Exists=VT187-0235
+};
+validate4
+{
+validate_Result=File Sent
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Imager
+};
+validate3
+{
+validate_Text_Exists=VT187-0224
+};
+validate4
+{
+validate_Result=Navigated successfully
+};</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,16 +862,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,9 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1213,7 +1211,7 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1230,289 +1228,289 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="217.5" thickBot="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="17"/>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="192" thickBot="1">
-      <c r="A3" s="1">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="192" thickBot="1">
-      <c r="A4" s="1">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="18">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="192" thickBot="1">
-      <c r="A5" s="1">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="18">
         <v>2</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>55</v>
+      <c r="G5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="158.25" thickBot="1">
-      <c r="A6" s="1">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="18">
         <v>2</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="192" thickBot="1">
-      <c r="A7" s="1">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="18">
         <v>3</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="192" thickBot="1">
-      <c r="A8" s="1">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="18">
         <v>3</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="192" thickBot="1">
-      <c r="A9" s="1">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="18">
         <v>3</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="192" thickBot="1">
-      <c r="A10" s="1">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="18">
         <v>3</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="192" thickBot="1">
-      <c r="A11" s="1">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="18">
+        <v>3</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="5">
-        <v>3</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="H11" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="192" thickBot="1">
-      <c r="A12" s="1">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="18">
         <v>1</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="18">
         <v>3</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="192" thickBot="1">
-      <c r="A13" s="1">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="18">
         <v>1</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="18">
@@ -1521,127 +1519,127 @@
       <c r="G13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>60</v>
+      <c r="H13" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="192" thickBot="1">
-      <c r="A14" s="1">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="18">
         <v>3</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="192" thickBot="1">
-      <c r="A15" s="1">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="18">
         <v>3</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>44</v>
+      <c r="G15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="192" thickBot="1">
-      <c r="A16" s="1">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="18">
         <v>1</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>48</v>
+      <c r="E16" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F16" s="18">
         <v>3</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="192" thickBot="1">
-      <c r="A17" s="1">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="18">
         <v>3</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="192" thickBot="1">
-      <c r="A18" s="1">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="18">
         <v>3</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>39</v>
       </c>
     </row>
